--- a/Code/Results/Cases/Case_3_77/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_77/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.225730014176634</v>
+        <v>0.535095978099406</v>
       </c>
       <c r="C2">
-        <v>0.149342421631534</v>
+        <v>0.3053878575661422</v>
       </c>
       <c r="D2">
-        <v>0.07904971092723656</v>
+        <v>0.03678230788326431</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4117985172741427</v>
+        <v>0.7017207948563495</v>
       </c>
       <c r="G2">
-        <v>0.309689373006826</v>
+        <v>0.5430413825110492</v>
       </c>
       <c r="H2">
-        <v>0.2832215395807367</v>
+        <v>0.6874466824658825</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9418968822897966</v>
+        <v>0.2870740952819233</v>
       </c>
       <c r="L2">
-        <v>0.4006034462634034</v>
+        <v>0.3022841447732532</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.197680825571368</v>
+        <v>2.43268904452944</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.065496669104647</v>
+        <v>0.4877282317053755</v>
       </c>
       <c r="C3">
-        <v>0.1556531241460934</v>
+        <v>0.308387659888929</v>
       </c>
       <c r="D3">
-        <v>0.07095550935438411</v>
+        <v>0.03400285097652045</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3967706793221168</v>
+        <v>0.7035530904853431</v>
       </c>
       <c r="G3">
-        <v>0.3037772869853015</v>
+        <v>0.5464289991049966</v>
       </c>
       <c r="H3">
-        <v>0.2863363577843714</v>
+        <v>0.6927265321242544</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8278693989066994</v>
+        <v>0.2504400313880524</v>
       </c>
       <c r="L3">
-        <v>0.3535419097324848</v>
+        <v>0.2910177986555738</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.19131152372573</v>
+        <v>2.450674007495664</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9672799136556307</v>
+        <v>0.4587191024306492</v>
       </c>
       <c r="C4">
-        <v>0.1597079016376597</v>
+        <v>0.3103315796407902</v>
       </c>
       <c r="D4">
-        <v>0.06596895314323348</v>
+        <v>0.03228202559675708</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3884017020340025</v>
+        <v>0.7051133395097082</v>
       </c>
       <c r="G4">
-        <v>0.3009443527977069</v>
+        <v>0.5488822302595793</v>
       </c>
       <c r="H4">
-        <v>0.2887496530755413</v>
+        <v>0.696265468618094</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7577756839709764</v>
+        <v>0.2278631197621905</v>
       </c>
       <c r="L4">
-        <v>0.3250381601407071</v>
+        <v>0.2842715012239552</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.190130030400141</v>
+        <v>2.463121297605767</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9272848983745519</v>
+        <v>0.4469172379610029</v>
       </c>
       <c r="C5">
-        <v>0.1614048813447155</v>
+        <v>0.311149426335815</v>
       </c>
       <c r="D5">
-        <v>0.06393234038673512</v>
+        <v>0.03157723513504607</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3851973010348217</v>
+        <v>0.705858610222073</v>
       </c>
       <c r="G5">
-        <v>0.2999811611068708</v>
+        <v>0.5499757283537576</v>
       </c>
       <c r="H5">
-        <v>0.2898550027858775</v>
+        <v>0.6977823689010592</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7291846533788657</v>
+        <v>0.2186424485574463</v>
       </c>
       <c r="L5">
-        <v>0.313512792321859</v>
+        <v>0.281565476567323</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.190306965070931</v>
+        <v>2.468546794850823</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9206451507025406</v>
+        <v>0.4449587532498072</v>
       </c>
       <c r="C6">
-        <v>0.1616893407910034</v>
+        <v>0.3112867811987599</v>
       </c>
       <c r="D6">
-        <v>0.06359387756219803</v>
+        <v>0.03145999250524767</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3846773784692559</v>
+        <v>0.7059889733152147</v>
       </c>
       <c r="G6">
-        <v>0.2998325140220288</v>
+        <v>0.5501629655007605</v>
       </c>
       <c r="H6">
-        <v>0.2900457944907657</v>
+        <v>0.6980387655197475</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7244352894031181</v>
+        <v>0.2171101485676701</v>
       </c>
       <c r="L6">
-        <v>0.3116042177213245</v>
+        <v>0.2811187513911619</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.190375318486105</v>
+        <v>2.469469021418661</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9667404255913823</v>
+        <v>0.4585598580156045</v>
       </c>
       <c r="C7">
-        <v>0.1597306078292551</v>
+        <v>0.3103425053783671</v>
       </c>
       <c r="D7">
-        <v>0.06594150555157796</v>
+        <v>0.03227253483058234</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3883576647749862</v>
+        <v>0.7051229472811329</v>
       </c>
       <c r="G7">
-        <v>0.3009306003318954</v>
+        <v>0.5488965979032798</v>
       </c>
       <c r="H7">
-        <v>0.288764071762202</v>
+        <v>0.6962856233203212</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7573902147758389</v>
+        <v>0.2277388483695404</v>
       </c>
       <c r="L7">
-        <v>0.3248823709413671</v>
+        <v>0.2842348320307622</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.19012978671806</v>
+        <v>2.463193038015703</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.170438812410566</v>
+        <v>0.5187484871656523</v>
       </c>
       <c r="C8">
-        <v>0.1514806087171721</v>
+        <v>0.306401030085711</v>
       </c>
       <c r="D8">
-        <v>0.076262070330543</v>
+        <v>0.03582692578979874</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4064327865242134</v>
+        <v>0.7022622520610753</v>
       </c>
       <c r="G8">
-        <v>0.3074797866994601</v>
+        <v>0.5441319322889129</v>
       </c>
       <c r="H8">
-        <v>0.2841891190215122</v>
+        <v>0.6892055440355662</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9025924700361827</v>
+        <v>0.274460330549033</v>
       </c>
       <c r="L8">
-        <v>0.3842899746014012</v>
+        <v>0.2983639996477478</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.194901045699069</v>
+        <v>2.43859874370915</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.571854981633862</v>
+        <v>0.6373444302820417</v>
       </c>
       <c r="C9">
-        <v>0.1367598896522875</v>
+        <v>0.2994800407940925</v>
       </c>
       <c r="D9">
-        <v>0.09638627785508902</v>
+        <v>0.04268284110201392</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4491512581397501</v>
+        <v>0.7001056071834029</v>
       </c>
       <c r="G9">
-        <v>0.3270831149018107</v>
+        <v>0.5377530213948702</v>
       </c>
       <c r="H9">
-        <v>0.2793813091365678</v>
+        <v>0.6776766607162514</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.187049788063746</v>
+        <v>0.3653974096094998</v>
       </c>
       <c r="L9">
-        <v>0.5043088347227069</v>
+        <v>0.3274287793100257</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.227235616543382</v>
+        <v>2.401515786436093</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.868942159059714</v>
+        <v>0.7247935658799065</v>
       </c>
       <c r="C10">
-        <v>0.1268754704004067</v>
+        <v>0.2948859683933609</v>
       </c>
       <c r="D10">
-        <v>0.1111296874041301</v>
+        <v>0.04764887961316333</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4856515284819309</v>
+        <v>0.7006273785194708</v>
       </c>
       <c r="G10">
-        <v>0.3462458324509186</v>
+        <v>0.5348787994104498</v>
       </c>
       <c r="H10">
-        <v>0.2786659238149838</v>
+        <v>0.6706393831478863</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.396412524699997</v>
+        <v>0.4317696322953566</v>
       </c>
       <c r="L10">
-        <v>0.5952407360007328</v>
+        <v>0.3496108035072751</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.266938695550834</v>
+        <v>2.381071429405011</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.00479719997054</v>
+        <v>0.7646397190200673</v>
       </c>
       <c r="C11">
-        <v>0.1225908695781701</v>
+        <v>0.2929021616930481</v>
       </c>
       <c r="D11">
-        <v>0.1178344316040381</v>
+        <v>0.04989237892871756</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5035274913084464</v>
+        <v>0.7013224054556559</v>
       </c>
       <c r="G11">
-        <v>0.3561477167946805</v>
+        <v>0.5339659005428956</v>
       </c>
       <c r="H11">
-        <v>0.2790179267084625</v>
+        <v>0.6677485368498992</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.491869188178242</v>
+        <v>0.4618643345237672</v>
       </c>
       <c r="L11">
-        <v>0.6373501706185039</v>
+        <v>0.3598820693295437</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.288920712897408</v>
+        <v>2.3732486941324</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.056364008437413</v>
+        <v>0.7797371239623203</v>
       </c>
       <c r="C12">
-        <v>0.1209997733590882</v>
+        <v>0.2921661696472828</v>
       </c>
       <c r="D12">
-        <v>0.1203736032809104</v>
+        <v>0.05073966128000507</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5104937423058971</v>
+        <v>0.7016514087237766</v>
       </c>
       <c r="G12">
-        <v>0.3600810606245233</v>
+        <v>0.5336770329001581</v>
       </c>
       <c r="H12">
-        <v>0.2792545103783226</v>
+        <v>0.6666984465414032</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.528058640001035</v>
+        <v>0.4732457643102919</v>
       </c>
       <c r="L12">
-        <v>0.6534156101336634</v>
+        <v>0.3637974545456188</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.297849287195532</v>
+        <v>2.370498976214122</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.045252445573283</v>
+        <v>0.7764852614394613</v>
       </c>
       <c r="C13">
-        <v>0.1213410330721452</v>
+        <v>0.2923240015271578</v>
       </c>
       <c r="D13">
-        <v>0.119826728087375</v>
+        <v>0.05055728603797149</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5089844387007432</v>
+        <v>0.7015776250195245</v>
       </c>
       <c r="G13">
-        <v>0.3592255517741592</v>
+        <v>0.5337367169709495</v>
       </c>
       <c r="H13">
-        <v>0.2791988664271798</v>
+        <v>0.6669226187151622</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.520262539136752</v>
+        <v>0.4707952372711475</v>
       </c>
       <c r="L13">
-        <v>0.6499501065915041</v>
+        <v>0.3629530566130796</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.295898799718827</v>
+        <v>2.371081720651688</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.009037081248891</v>
+        <v>0.765881625376494</v>
       </c>
       <c r="C14">
-        <v>0.1224593345671909</v>
+        <v>0.2928413060088157</v>
       </c>
       <c r="D14">
-        <v>0.1180433229791049</v>
+        <v>0.04996213133655658</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.504096576412941</v>
+        <v>0.7013481537983353</v>
       </c>
       <c r="G14">
-        <v>0.3564675537940758</v>
+        <v>0.5339409958436079</v>
       </c>
       <c r="H14">
-        <v>0.2790352855257083</v>
+        <v>0.6676612514078215</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.494845607066225</v>
+        <v>0.4628009914746372</v>
       </c>
       <c r="L14">
-        <v>0.6386694140992688</v>
+        <v>0.3602036722400328</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.289642915495477</v>
+        <v>2.373018212049374</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.986870545834677</v>
+        <v>0.7593876785601594</v>
       </c>
       <c r="C15">
-        <v>0.1231484426434051</v>
+        <v>0.2931601531106729</v>
       </c>
       <c r="D15">
-        <v>0.1169509823383095</v>
+        <v>0.04959728344068992</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.501128711083048</v>
+        <v>0.7012161666227712</v>
       </c>
       <c r="G15">
-        <v>0.3548025369212695</v>
+        <v>0.5340735256376234</v>
       </c>
       <c r="H15">
-        <v>0.2789487195310869</v>
+        <v>0.6681194939263122</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.4792828219569</v>
+        <v>0.4579023413178902</v>
       </c>
       <c r="L15">
-        <v>0.6317756139865622</v>
+        <v>0.3585229627428106</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.285890976001895</v>
+        <v>2.374232056902343</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.86007961190731</v>
+        <v>0.7221907650909429</v>
       </c>
       <c r="C16">
-        <v>0.127159820111661</v>
+        <v>0.2950177474066713</v>
       </c>
       <c r="D16">
-        <v>0.1106915189906488</v>
+        <v>0.04750194460493162</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4845100716394981</v>
+        <v>0.7005911663359754</v>
       </c>
       <c r="G16">
-        <v>0.3456236821825485</v>
+        <v>0.5349464070879577</v>
       </c>
       <c r="H16">
-        <v>0.2786570447290302</v>
+        <v>0.670834551044905</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.390179481674153</v>
+        <v>0.4298008390275641</v>
       </c>
       <c r="L16">
-        <v>0.5925048085278632</v>
+        <v>0.3489431781907655</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.265584431904102</v>
+        <v>2.381612404931815</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.782492454019206</v>
+        <v>0.6993877466242111</v>
       </c>
       <c r="C17">
-        <v>0.1296755744676386</v>
+        <v>0.2961844723137013</v>
       </c>
       <c r="D17">
-        <v>0.1068513696324942</v>
+        <v>0.04621250249965669</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4746505882185375</v>
+        <v>0.7003249691412563</v>
       </c>
       <c r="G17">
-        <v>0.3403054124913325</v>
+        <v>0.535583018341022</v>
       </c>
       <c r="H17">
-        <v>0.2786556790827035</v>
+        <v>0.6725796410905218</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.335580459937972</v>
+        <v>0.4125358321952035</v>
       </c>
       <c r="L17">
-        <v>0.5686126550513677</v>
+        <v>0.3431124753045935</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.254159357625554</v>
+        <v>2.386518519088952</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.737931818010566</v>
+        <v>0.6862782308110127</v>
       </c>
       <c r="C18">
-        <v>0.1311424537220311</v>
+        <v>0.2968655255770312</v>
       </c>
       <c r="D18">
-        <v>0.104642384921128</v>
+        <v>0.04546938589487581</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4690984853629985</v>
+        <v>0.7002149378028193</v>
       </c>
       <c r="G18">
-        <v>0.3373571415516423</v>
+        <v>0.5359863168528989</v>
       </c>
       <c r="H18">
-        <v>0.2787182834049489</v>
+        <v>0.6736125932975199</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.304196222157231</v>
+        <v>0.4025962372436709</v>
       </c>
       <c r="L18">
-        <v>0.5549397565383032</v>
+        <v>0.3397758086576488</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.247954425338321</v>
+        <v>2.389479449015639</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.722855018946177</v>
+        <v>0.6818406602889411</v>
       </c>
       <c r="C19">
-        <v>0.1316425017028546</v>
+        <v>0.2970978338420593</v>
       </c>
       <c r="D19">
-        <v>0.1038944050759696</v>
+        <v>0.04521752929272793</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4672386286517849</v>
+        <v>0.7001850818171391</v>
       </c>
       <c r="G19">
-        <v>0.3363775199246462</v>
+        <v>0.5361292424477</v>
       </c>
       <c r="H19">
-        <v>0.2787501946206916</v>
+        <v>0.6739673531296759</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.293573117178767</v>
+        <v>0.3992292971576035</v>
       </c>
       <c r="L19">
-        <v>0.5503218716643943</v>
+        <v>0.3386489928549707</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.245915287197164</v>
+        <v>2.390505849539068</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.79074482880938</v>
+        <v>0.7018145335602526</v>
       </c>
       <c r="C20">
-        <v>0.1294057037104022</v>
+        <v>0.296059239290754</v>
       </c>
       <c r="D20">
-        <v>0.1072601803869944</v>
+        <v>0.04634991759733964</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4756877510517796</v>
+        <v>0.7003488478517639</v>
       </c>
       <c r="G20">
-        <v>0.3408600047360437</v>
+        <v>0.5355114058765125</v>
       </c>
       <c r="H20">
-        <v>0.2786492225226453</v>
+        <v>0.6723908490769617</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.341390505912926</v>
+        <v>0.4143746804722923</v>
       </c>
       <c r="L20">
-        <v>0.5711487618974758</v>
+        <v>0.3437314048043731</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.255337362153597</v>
+        <v>2.385981861512533</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.019670952633192</v>
+        <v>0.7689959453883262</v>
       </c>
       <c r="C21">
-        <v>0.1221300027891079</v>
+        <v>0.2926889478837964</v>
       </c>
       <c r="D21">
-        <v>0.1185671415987173</v>
+        <v>0.05013700497318041</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5055267961179624</v>
+        <v>0.701413768962162</v>
       </c>
       <c r="G21">
-        <v>0.3572725478634595</v>
+        <v>0.5338794512415177</v>
       </c>
       <c r="H21">
-        <v>0.2790804812683092</v>
+        <v>0.6674430866165864</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.502309942606558</v>
+        <v>0.4651495014642819</v>
       </c>
       <c r="L21">
-        <v>0.6419794794681906</v>
+        <v>0.3610105313767207</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.291463678308531</v>
+        <v>2.372443647231023</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.170005422338818</v>
+        <v>0.8129522258245174</v>
       </c>
       <c r="C22">
-        <v>0.1175583404478715</v>
+        <v>0.2905750458513747</v>
       </c>
       <c r="D22">
-        <v>0.1259585124391833</v>
+        <v>0.0525987637908969</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5261838917777553</v>
+        <v>0.7024933558345765</v>
       </c>
       <c r="G22">
-        <v>0.3690767654226761</v>
+        <v>0.5331441462222983</v>
       </c>
       <c r="H22">
-        <v>0.2799673835138208</v>
+        <v>0.6644694471450663</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.607731079629986</v>
+        <v>0.49824733415889</v>
       </c>
       <c r="L22">
-        <v>0.6889744791155863</v>
+        <v>0.3724542471237271</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.318618387891405</v>
+        <v>2.364834786595367</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.089696558158664</v>
+        <v>0.7894876905600654</v>
       </c>
       <c r="C23">
-        <v>0.1199812193769745</v>
+        <v>0.2916951580322209</v>
       </c>
       <c r="D23">
-        <v>0.1220132647545995</v>
+        <v>0.05128610967572911</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5150481703690275</v>
+        <v>0.7018820612428769</v>
       </c>
       <c r="G23">
-        <v>0.3626733798327137</v>
+        <v>0.5335062533460473</v>
       </c>
       <c r="H23">
-        <v>0.2794366219216329</v>
+        <v>0.6660327539721749</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.551439035382117</v>
+        <v>0.4805905179695458</v>
       </c>
       <c r="L23">
-        <v>0.6638236750722228</v>
+        <v>0.366332749553834</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.303786992717562</v>
+        <v>2.368782358213508</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.787013790670755</v>
+        <v>0.700717382366804</v>
       </c>
       <c r="C24">
-        <v>0.1295276483758876</v>
+        <v>0.2961158250950433</v>
       </c>
       <c r="D24">
-        <v>0.1070753609211934</v>
+        <v>0.04628779783225667</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.475218488713864</v>
+        <v>0.7003379183171816</v>
       </c>
       <c r="G24">
-        <v>0.3406089342210308</v>
+        <v>0.5355436656845143</v>
       </c>
       <c r="H24">
-        <v>0.2786519445291589</v>
+        <v>0.6724761095024405</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.33876376791693</v>
+        <v>0.4135433798317365</v>
       </c>
       <c r="L24">
-        <v>0.5700019926392201</v>
+        <v>0.3434515385484502</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.254803657142816</v>
+        <v>2.386224047262857</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.462954714278538</v>
+        <v>0.6052034198995386</v>
       </c>
       <c r="C25">
-        <v>0.1405819756199396</v>
+        <v>0.3012660273729626</v>
       </c>
       <c r="D25">
-        <v>0.09095161797048945</v>
+        <v>0.04084050487688273</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4367481776244873</v>
+        <v>0.7003192319041887</v>
       </c>
       <c r="G25">
-        <v>0.3209924572442588</v>
+        <v>0.5391607787195056</v>
       </c>
       <c r="H25">
-        <v>0.2802084379941476</v>
+        <v>0.6805436819168591</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.110072940049008</v>
+        <v>0.3408720412251114</v>
       </c>
       <c r="L25">
-        <v>0.4714031298259727</v>
+        <v>0.3194205941220645</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.215835029341577</v>
+        <v>2.410353852112578</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_77/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_77/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.535095978099406</v>
+        <v>1.225730014176492</v>
       </c>
       <c r="C2">
-        <v>0.3053878575661422</v>
+        <v>0.1493424216312302</v>
       </c>
       <c r="D2">
-        <v>0.03678230788326431</v>
+        <v>0.07904971092747104</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7017207948563495</v>
+        <v>0.4117985172741143</v>
       </c>
       <c r="G2">
-        <v>0.5430413825110492</v>
+        <v>0.3096893730067478</v>
       </c>
       <c r="H2">
-        <v>0.6874466824658825</v>
+        <v>0.2832215395806017</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2870740952819233</v>
+        <v>0.9418968822897114</v>
       </c>
       <c r="L2">
-        <v>0.3022841447732532</v>
+        <v>0.4006034462632897</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.43268904452944</v>
+        <v>1.197680825571325</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4877282317053755</v>
+        <v>1.065496669104874</v>
       </c>
       <c r="C3">
-        <v>0.308387659888929</v>
+        <v>0.1556531241461592</v>
       </c>
       <c r="D3">
-        <v>0.03400285097652045</v>
+        <v>0.070955509354377</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7035530904853431</v>
+        <v>0.3967706793221311</v>
       </c>
       <c r="G3">
-        <v>0.5464289991049966</v>
+        <v>0.3037772869853086</v>
       </c>
       <c r="H3">
-        <v>0.6927265321242544</v>
+        <v>0.2863363577843643</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2504400313880524</v>
+        <v>0.827869398906671</v>
       </c>
       <c r="L3">
-        <v>0.2910177986555738</v>
+        <v>0.3535419097324564</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.450674007495664</v>
+        <v>1.191311523725687</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4587191024306492</v>
+        <v>0.9672799136556591</v>
       </c>
       <c r="C4">
-        <v>0.3103315796407902</v>
+        <v>0.1597079016379706</v>
       </c>
       <c r="D4">
-        <v>0.03228202559675708</v>
+        <v>0.06596895314348927</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7051133395097082</v>
+        <v>0.3884017020340025</v>
       </c>
       <c r="G4">
-        <v>0.5488822302595793</v>
+        <v>0.3009443527976927</v>
       </c>
       <c r="H4">
-        <v>0.696265468618094</v>
+        <v>0.2887496530756408</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2278631197621905</v>
+        <v>0.7577756839709764</v>
       </c>
       <c r="L4">
-        <v>0.2842715012239552</v>
+        <v>0.3250381601407355</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.463121297605767</v>
+        <v>1.190130030400155</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4469172379610029</v>
+        <v>0.9272848983745803</v>
       </c>
       <c r="C5">
-        <v>0.311149426335815</v>
+        <v>0.1614048813447777</v>
       </c>
       <c r="D5">
-        <v>0.03157723513504607</v>
+        <v>0.06393234038689144</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.705858610222073</v>
+        <v>0.385197301034836</v>
       </c>
       <c r="G5">
-        <v>0.5499757283537576</v>
+        <v>0.2999811611068566</v>
       </c>
       <c r="H5">
-        <v>0.6977823689010592</v>
+        <v>0.2898550027857567</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2186424485574463</v>
+        <v>0.7291846533788942</v>
       </c>
       <c r="L5">
-        <v>0.281565476567323</v>
+        <v>0.3135127923219443</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.468546794850823</v>
+        <v>1.190306965070917</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4449587532498072</v>
+        <v>0.9206451507023985</v>
       </c>
       <c r="C6">
-        <v>0.3112867811987599</v>
+        <v>0.1616893407911242</v>
       </c>
       <c r="D6">
-        <v>0.03145999250524767</v>
+        <v>0.06359387756207724</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7059889733152147</v>
+        <v>0.3846773784692274</v>
       </c>
       <c r="G6">
-        <v>0.5501629655007605</v>
+        <v>0.2998325140220928</v>
       </c>
       <c r="H6">
-        <v>0.6980387655197475</v>
+        <v>0.2900457944907728</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2171101485676701</v>
+        <v>0.7244352894032176</v>
       </c>
       <c r="L6">
-        <v>0.2811187513911619</v>
+        <v>0.3116042177210971</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.469469021418661</v>
+        <v>1.190375318486105</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4585598580156045</v>
+        <v>0.9667404255914391</v>
       </c>
       <c r="C7">
-        <v>0.3103425053783671</v>
+        <v>0.1597306078292462</v>
       </c>
       <c r="D7">
-        <v>0.03227253483058234</v>
+        <v>0.06594150555157796</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7051229472811329</v>
+        <v>0.3883576647749933</v>
       </c>
       <c r="G7">
-        <v>0.5488965979032798</v>
+        <v>0.3009306003319523</v>
       </c>
       <c r="H7">
-        <v>0.6962856233203212</v>
+        <v>0.288764071762202</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2277388483695404</v>
+        <v>0.7573902147758247</v>
       </c>
       <c r="L7">
-        <v>0.2842348320307622</v>
+        <v>0.3248823709413671</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.463193038015703</v>
+        <v>1.190129786718074</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5187484871656523</v>
+        <v>1.170438812410339</v>
       </c>
       <c r="C8">
-        <v>0.306401030085711</v>
+        <v>0.151480608716934</v>
       </c>
       <c r="D8">
-        <v>0.03582692578979874</v>
+        <v>0.07626207033055721</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7022622520610753</v>
+        <v>0.4064327865242277</v>
       </c>
       <c r="G8">
-        <v>0.5441319322889129</v>
+        <v>0.3074797866995311</v>
       </c>
       <c r="H8">
-        <v>0.6892055440355662</v>
+        <v>0.2841891190213985</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.274460330549033</v>
+        <v>0.9025924700361543</v>
       </c>
       <c r="L8">
-        <v>0.2983639996477478</v>
+        <v>0.3842899746014012</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.43859874370915</v>
+        <v>1.194901045699069</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6373444302820417</v>
+        <v>1.571854981633862</v>
       </c>
       <c r="C9">
-        <v>0.2994800407940925</v>
+        <v>0.1367598896525113</v>
       </c>
       <c r="D9">
-        <v>0.04268284110201392</v>
+        <v>0.09638627785522402</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7001056071834029</v>
+        <v>0.4491512581397501</v>
       </c>
       <c r="G9">
-        <v>0.5377530213948702</v>
+        <v>0.3270831149017468</v>
       </c>
       <c r="H9">
-        <v>0.6776766607162514</v>
+        <v>0.2793813091364541</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3653974096094998</v>
+        <v>1.187049788063803</v>
       </c>
       <c r="L9">
-        <v>0.3274287793100257</v>
+        <v>0.504308834722778</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.401515786436093</v>
+        <v>1.227235616543425</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7247935658799065</v>
+        <v>1.868942159059742</v>
       </c>
       <c r="C10">
-        <v>0.2948859683933609</v>
+        <v>0.1268754704004103</v>
       </c>
       <c r="D10">
-        <v>0.04764887961316333</v>
+        <v>0.1111296874039596</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7006273785194708</v>
+        <v>0.485651528481938</v>
       </c>
       <c r="G10">
-        <v>0.5348787994104498</v>
+        <v>0.3462458324509328</v>
       </c>
       <c r="H10">
-        <v>0.6706393831478863</v>
+        <v>0.2786659238149838</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4317696322953566</v>
+        <v>1.396412524699997</v>
       </c>
       <c r="L10">
-        <v>0.3496108035072751</v>
+        <v>0.5952407360007328</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.381071429405011</v>
+        <v>1.266938695550749</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7646397190200673</v>
+        <v>2.004797199970312</v>
       </c>
       <c r="C11">
-        <v>0.2929021616930481</v>
+        <v>0.1225908695781541</v>
       </c>
       <c r="D11">
-        <v>0.04989237892871756</v>
+        <v>0.1178344316041233</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7013224054556559</v>
+        <v>0.5035274913084322</v>
       </c>
       <c r="G11">
-        <v>0.5339659005428956</v>
+        <v>0.3561477167946805</v>
       </c>
       <c r="H11">
-        <v>0.6677485368498992</v>
+        <v>0.2790179267084625</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4618643345237672</v>
+        <v>1.491869188178327</v>
       </c>
       <c r="L11">
-        <v>0.3598820693295437</v>
+        <v>0.6373501706185181</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.3732486941324</v>
+        <v>1.288920712897465</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7797371239623203</v>
+        <v>2.056364008437356</v>
       </c>
       <c r="C12">
-        <v>0.2921661696472828</v>
+        <v>0.1209997733589976</v>
       </c>
       <c r="D12">
-        <v>0.05073966128000507</v>
+        <v>0.1203736032809815</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7016514087237766</v>
+        <v>0.51049374230589</v>
       </c>
       <c r="G12">
-        <v>0.5336770329001581</v>
+        <v>0.3600810606245233</v>
       </c>
       <c r="H12">
-        <v>0.6666984465414032</v>
+        <v>0.2792545103783226</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4732457643102919</v>
+        <v>1.528058640001007</v>
       </c>
       <c r="L12">
-        <v>0.3637974545456188</v>
+        <v>0.6534156101336492</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.370498976214122</v>
+        <v>1.297849287195532</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7764852614394613</v>
+        <v>2.045252445573169</v>
       </c>
       <c r="C13">
-        <v>0.2923240015271578</v>
+        <v>0.1213410330719071</v>
       </c>
       <c r="D13">
-        <v>0.05055728603797149</v>
+        <v>0.1198267280873182</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7015776250195245</v>
+        <v>0.508984438700729</v>
       </c>
       <c r="G13">
-        <v>0.5337367169709495</v>
+        <v>0.3592255517741592</v>
       </c>
       <c r="H13">
-        <v>0.6669226187151622</v>
+        <v>0.2791988664271656</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4707952372711475</v>
+        <v>1.520262539136695</v>
       </c>
       <c r="L13">
-        <v>0.3629530566130796</v>
+        <v>0.6499501065914615</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.371081720651688</v>
+        <v>1.295898799718827</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.765881625376494</v>
+        <v>2.009037081248891</v>
       </c>
       <c r="C14">
-        <v>0.2928413060088157</v>
+        <v>0.1224593345671927</v>
       </c>
       <c r="D14">
-        <v>0.04996213133655658</v>
+        <v>0.1180433229791049</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7013481537983353</v>
+        <v>0.504096576412941</v>
       </c>
       <c r="G14">
-        <v>0.5339409958436079</v>
+        <v>0.3564675537941326</v>
       </c>
       <c r="H14">
-        <v>0.6676612514078215</v>
+        <v>0.2790352855257225</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4628009914746372</v>
+        <v>1.494845607066111</v>
       </c>
       <c r="L14">
-        <v>0.3602036722400328</v>
+        <v>0.638669414099283</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.373018212049374</v>
+        <v>1.289642915495506</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7593876785601594</v>
+        <v>1.986870545834819</v>
       </c>
       <c r="C15">
-        <v>0.2931601531106729</v>
+        <v>0.1231484426433234</v>
       </c>
       <c r="D15">
-        <v>0.04959728344068992</v>
+        <v>0.1169509823384232</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7012161666227712</v>
+        <v>0.5011287110830551</v>
       </c>
       <c r="G15">
-        <v>0.5340735256376234</v>
+        <v>0.3548025369213264</v>
       </c>
       <c r="H15">
-        <v>0.6681194939263122</v>
+        <v>0.2789487195310727</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4579023413178902</v>
+        <v>1.4792828219569</v>
       </c>
       <c r="L15">
-        <v>0.3585229627428106</v>
+        <v>0.6317756139865622</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.374232056902343</v>
+        <v>1.285890976001866</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7221907650909429</v>
+        <v>1.86007961190731</v>
       </c>
       <c r="C16">
-        <v>0.2950177474066713</v>
+        <v>0.1271598201118849</v>
       </c>
       <c r="D16">
-        <v>0.04750194460493162</v>
+        <v>0.1106915189904925</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7005911663359754</v>
+        <v>0.4845100716395123</v>
       </c>
       <c r="G16">
-        <v>0.5349464070879577</v>
+        <v>0.3456236821824774</v>
       </c>
       <c r="H16">
-        <v>0.670834551044905</v>
+        <v>0.2786570447289165</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4298008390275641</v>
+        <v>1.390179481674068</v>
       </c>
       <c r="L16">
-        <v>0.3489431781907655</v>
+        <v>0.592504808527849</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.381612404931815</v>
+        <v>1.265584431904045</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6993877466242111</v>
+        <v>1.78249245401912</v>
       </c>
       <c r="C17">
-        <v>0.2961844723137013</v>
+        <v>0.1296755744676421</v>
       </c>
       <c r="D17">
-        <v>0.04621250249965669</v>
+        <v>0.1068513696327145</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7003249691412563</v>
+        <v>0.4746505882185161</v>
       </c>
       <c r="G17">
-        <v>0.535583018341022</v>
+        <v>0.3403054124912757</v>
       </c>
       <c r="H17">
-        <v>0.6725796410905218</v>
+        <v>0.2786556790828314</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4125358321952035</v>
+        <v>1.335580459937859</v>
       </c>
       <c r="L17">
-        <v>0.3431124753045935</v>
+        <v>0.5686126550514103</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.386518519088952</v>
+        <v>1.254159357625412</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6862782308110127</v>
+        <v>1.737931818010765</v>
       </c>
       <c r="C18">
-        <v>0.2968655255770312</v>
+        <v>0.131142453721953</v>
       </c>
       <c r="D18">
-        <v>0.04546938589487581</v>
+        <v>0.1046423849211422</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7002149378028193</v>
+        <v>0.4690984853629985</v>
       </c>
       <c r="G18">
-        <v>0.5359863168528989</v>
+        <v>0.3373571415516992</v>
       </c>
       <c r="H18">
-        <v>0.6736125932975199</v>
+        <v>0.278718283404956</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4025962372436709</v>
+        <v>1.304196222157316</v>
       </c>
       <c r="L18">
-        <v>0.3397758086576488</v>
+        <v>0.5549397565382463</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.389479449015639</v>
+        <v>1.247954425338236</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6818406602889411</v>
+        <v>1.722855018946177</v>
       </c>
       <c r="C19">
-        <v>0.2970978338420593</v>
+        <v>0.1316425017026273</v>
       </c>
       <c r="D19">
-        <v>0.04521752929272793</v>
+        <v>0.1038944050759696</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7001850818171391</v>
+        <v>0.4672386286517849</v>
       </c>
       <c r="G19">
-        <v>0.5361292424477</v>
+        <v>0.336377519924639</v>
       </c>
       <c r="H19">
-        <v>0.6739673531296759</v>
+        <v>0.2787501946206845</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3992292971576035</v>
+        <v>1.29357311717888</v>
       </c>
       <c r="L19">
-        <v>0.3386489928549707</v>
+        <v>0.5503218716643232</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.390505849539068</v>
+        <v>1.245915287197164</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7018145335602526</v>
+        <v>1.790744828809494</v>
       </c>
       <c r="C20">
-        <v>0.296059239290754</v>
+        <v>0.1294057037104022</v>
       </c>
       <c r="D20">
-        <v>0.04634991759733964</v>
+        <v>0.1072601803872288</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7003488478517639</v>
+        <v>0.4756877510517654</v>
       </c>
       <c r="G20">
-        <v>0.5355114058765125</v>
+        <v>0.3408600047361148</v>
       </c>
       <c r="H20">
-        <v>0.6723908490769617</v>
+        <v>0.2786492225226453</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4143746804722923</v>
+        <v>1.34139050591304</v>
       </c>
       <c r="L20">
-        <v>0.3437314048043731</v>
+        <v>0.5711487618975326</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.385981861512533</v>
+        <v>1.255337362153597</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7689959453883262</v>
+        <v>2.019670952633192</v>
       </c>
       <c r="C21">
-        <v>0.2926889478837964</v>
+        <v>0.1221300027890262</v>
       </c>
       <c r="D21">
-        <v>0.05013700497318041</v>
+        <v>0.1185671415986747</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.701413768962162</v>
+        <v>0.5055267961179482</v>
       </c>
       <c r="G21">
-        <v>0.5338794512415177</v>
+        <v>0.3572725478633885</v>
       </c>
       <c r="H21">
-        <v>0.6674430866165864</v>
+        <v>0.279080481268295</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4651495014642819</v>
+        <v>1.502309942606672</v>
       </c>
       <c r="L21">
-        <v>0.3610105313767207</v>
+        <v>0.6419794794681764</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.372443647231023</v>
+        <v>1.291463678308503</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8129522258245174</v>
+        <v>2.170005422338932</v>
       </c>
       <c r="C22">
-        <v>0.2905750458513747</v>
+        <v>0.1175583404480989</v>
       </c>
       <c r="D22">
-        <v>0.0525987637908969</v>
+        <v>0.1259585124389559</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7024933558345765</v>
+        <v>0.5261838917777553</v>
       </c>
       <c r="G22">
-        <v>0.5331441462222983</v>
+        <v>0.3690767654226192</v>
       </c>
       <c r="H22">
-        <v>0.6644694471450663</v>
+        <v>0.2799673835138208</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.49824733415889</v>
+        <v>1.607731079629758</v>
       </c>
       <c r="L22">
-        <v>0.3724542471237271</v>
+        <v>0.688974479115501</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.364834786595367</v>
+        <v>1.31861838789132</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7894876905600654</v>
+        <v>2.08969655815855</v>
       </c>
       <c r="C23">
-        <v>0.2916951580322209</v>
+        <v>0.1199812193769798</v>
       </c>
       <c r="D23">
-        <v>0.05128610967572911</v>
+        <v>0.1220132647544574</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7018820612428769</v>
+        <v>0.5150481703690346</v>
       </c>
       <c r="G23">
-        <v>0.5335062533460473</v>
+        <v>0.3626733798327706</v>
       </c>
       <c r="H23">
-        <v>0.6660327539721749</v>
+        <v>0.2794366219216329</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4805905179695458</v>
+        <v>1.551439035382117</v>
       </c>
       <c r="L23">
-        <v>0.366332749553834</v>
+        <v>0.6638236750721518</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.368782358213508</v>
+        <v>1.303786992717534</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.700717382366804</v>
+        <v>1.787013790670755</v>
       </c>
       <c r="C24">
-        <v>0.2961158250950433</v>
+        <v>0.1295276483755821</v>
       </c>
       <c r="D24">
-        <v>0.04628779783225667</v>
+        <v>0.1070753609213</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7003379183171816</v>
+        <v>0.4752184887138569</v>
       </c>
       <c r="G24">
-        <v>0.5355436656845143</v>
+        <v>0.3406089342209597</v>
       </c>
       <c r="H24">
-        <v>0.6724761095024405</v>
+        <v>0.2786519445291589</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4135433798317365</v>
+        <v>1.338763767916845</v>
       </c>
       <c r="L24">
-        <v>0.3434515385484502</v>
+        <v>0.5700019926392343</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.386224047262857</v>
+        <v>1.25480365714273</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6052034198995386</v>
+        <v>1.462954714278425</v>
       </c>
       <c r="C25">
-        <v>0.3012660273729626</v>
+        <v>0.1405819756197015</v>
       </c>
       <c r="D25">
-        <v>0.04084050487688273</v>
+        <v>0.09095161797048235</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7003192319041887</v>
+        <v>0.4367481776244873</v>
       </c>
       <c r="G25">
-        <v>0.5391607787195056</v>
+        <v>0.3209924572443157</v>
       </c>
       <c r="H25">
-        <v>0.6805436819168591</v>
+        <v>0.2802084379941476</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3408720412251114</v>
+        <v>1.110072940049008</v>
       </c>
       <c r="L25">
-        <v>0.3194205941220645</v>
+        <v>0.4714031298259869</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.410353852112578</v>
+        <v>1.215835029341577</v>
       </c>
     </row>
   </sheetData>
